--- a/NodeHorarios/Test.xlsx
+++ b/NodeHorarios/Test.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -139,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +479,7 @@
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -485,10 +487,10 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
@@ -497,8 +499,13 @@
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +536,17 @@
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -554,6 +570,37 @@
       </c>
       <c r="L3" t="s">
         <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -563,73 +610,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>